--- a/files/deployment/deployment-plan.xlsx
+++ b/files/deployment/deployment-plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Fun\Python\ado-express\files\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F9F2F2-4F08-4BD3-92E4-D9CD247CDA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DA0497-DF20-481E-98AB-CACC01FC801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4755" windowWidth="16440" windowHeight="28440" xr2:uid="{6B967F0F-6D7C-430B-BC59-0230DFF1D9B1}"/>
+    <workbookView xWindow="28800" yWindow="3990" windowWidth="16200" windowHeight="11505" xr2:uid="{6B967F0F-6D7C-430B-BC59-0230DFF1D9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Release Number</t>
   </si>
@@ -51,6 +51,60 @@
   </si>
   <si>
     <t>Crucial</t>
+  </si>
+  <si>
+    <t>International      </t>
+  </si>
+  <si>
+    <t>Internationalapp  </t>
+  </si>
+  <si>
+    <t>2603 </t>
+  </si>
+  <si>
+    <t>2572 </t>
+  </si>
+  <si>
+    <t>international-api-yaml  </t>
+  </si>
+  <si>
+    <t>788 </t>
+  </si>
+  <si>
+    <t>765 </t>
+  </si>
+  <si>
+    <t>International  </t>
+  </si>
+  <si>
+    <t>international-db-yaml-new  </t>
+  </si>
+  <si>
+    <t>438 </t>
+  </si>
+  <si>
+    <t>418 </t>
+  </si>
+  <si>
+    <t>internationalsis-api-yaml  </t>
+  </si>
+  <si>
+    <t>international-sb-notifications-yaml </t>
+  </si>
+  <si>
+    <t>784 </t>
+  </si>
+  <si>
+    <t>771 </t>
+  </si>
+  <si>
+    <t>internationaladmin-api-yaml </t>
+  </si>
+  <si>
+    <t>755 </t>
+  </si>
+  <si>
+    <t>732 </t>
   </si>
 </sst>
 </file>
@@ -405,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F26F02E-433B-4821-A488-863521E826B7}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +490,90 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>811</v>
+      </c>
+      <c r="D5" s="1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/files/deployment/deployment-plan.xlsx
+++ b/files/deployment/deployment-plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Fun\Python\ado-express\files\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F9F2F2-4F08-4BD3-92E4-D9CD247CDA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A18F96-5119-436D-B306-54C7F0E941EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4755" windowWidth="16440" windowHeight="28440" xr2:uid="{6B967F0F-6D7C-430B-BC59-0230DFF1D9B1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B967F0F-6D7C-430B-BC59-0230DFF1D9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
